--- a/Module 29 - Consolidated Financial Statements Changes in Ownership.xlsx
+++ b/Module 29 - Consolidated Financial Statements Changes in Ownership.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ukdeloitte-my.sharepoint.com/personal/bcornish_deloitte_co_uk/Documents/ICAS/TPS/FINREP/Bob's FINREP Class Notes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1536" documentId="8_{BDDAC32E-D3A0-4B07-82DD-9254471C4621}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{290DADC4-47A2-488E-83FB-58590DA5ED83}"/>
+  <xr:revisionPtr revIDLastSave="1537" documentId="8_{BDDAC32E-D3A0-4B07-82DD-9254471C4621}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1F56D80C-CF48-48AC-A675-1B2779DEB8C2}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="2670" windowWidth="21600" windowHeight="11385" xr2:uid="{750A9A79-C9DD-463F-8BC6-11A10655965C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{750A9A79-C9DD-463F-8BC6-11A10655965C}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -1385,8 +1385,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD7F9B7B-8EDB-4BF0-B7EC-1D709AD83C44}">
   <dimension ref="B2:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3316,8 +3316,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2D9ECEA-24A2-48F0-BA33-266232C41B0D}">
   <dimension ref="A1:H70"/>
   <sheetViews>
-    <sheetView topLeftCell="A35" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="D52" sqref="A52:XFD70"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -3342,7 +3342,7 @@
         <v>51</v>
       </c>
       <c r="C3" s="3">
-        <v>43281</v>
+        <v>46934</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -4404,7 +4404,7 @@
     </row>
     <row r="64" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B64" s="1">
-        <f>+0.45</f>
+        <f>0.45</f>
         <v>0.45</v>
       </c>
       <c r="C64" s="5">
